--- a/apostas_registradas.xlsx
+++ b/apostas_registradas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pncdp\.vscode\project_racing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5C98E2-2E39-4F15-BB44-5CD806C06471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F70CD-2A62-4D2B-8B9A-D5390AD82535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21792" yWindow="1248" windowWidth="16452" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Local</t>
   </si>
@@ -47,39 +47,6 @@
   </si>
   <si>
     <t>Tipo de Pista</t>
-  </si>
-  <si>
-    <t>Newmarket</t>
-  </si>
-  <si>
-    <t>Masai Moon</t>
-  </si>
-  <si>
-    <t>Derrota</t>
-  </si>
-  <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>Good to Soft</t>
-  </si>
-  <si>
-    <t>Ottoman Fleet</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>Kempton</t>
-  </si>
-  <si>
-    <t>Luminoso</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>Standar to Slow</t>
   </si>
 </sst>
 </file>
@@ -87,8 +54,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -144,8 +111,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,9 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -499,91 +464,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>6.5</v>
-      </c>
-      <c r="D2">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45762</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>2.63</v>
-      </c>
-      <c r="D3">
-        <v>312</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45762</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>1.67</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45762</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
